--- a/myth/quiz/xlsx/urban_legends.xlsx
+++ b/myth/quiz/xlsx/urban_legends.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="205">
   <si>
     <t>Сколько раз нужно произнести "Кровавая Мэри" стоя перед зеркалом, чтобы вызвать дух Мэри Уорт?</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Слендермен</t>
   </si>
   <si>
-    <t>Как звали девочку, которая спроецировала свое проклятие на видеокассету?</t>
-  </si>
-  <si>
     <t>Что произойдет через 7 дней, если посмотреть проклятую видеокассету?</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Ничего особенного</t>
   </si>
   <si>
-    <t>Что происходит в городских легендах после того, как водитель подбирает попутчика на пустынном участке дороги?</t>
-  </si>
-  <si>
     <t>Кентукки</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Индия</t>
   </si>
   <si>
-    <t>Россия</t>
-  </si>
-  <si>
     <t>США</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
     <t>В Грейтер-Питтстоне, штат Пенсильвания, неопознанное существо с леденящим кровь криком ночью повергает всех местных жителей в ужас</t>
   </si>
   <si>
-    <t>Водитель приезжает в пункт назначения... но автостопщик исчез. Позже он узнаёт, что на том же участке шоссе много лет назад погибли молодая девушка или парень</t>
-  </si>
-  <si>
     <t>Сообщается, что дух заставляет женщин беременеть в рамках своего плана мести: все рождённые сыновья вырастут и отомстят за своего убитого отца</t>
   </si>
   <si>
@@ -385,6 +373,264 @@
   </si>
   <si>
     <t>Японская городская легенда о призраке девочки, который появится, если в туалете прокричать её имя</t>
+  </si>
+  <si>
+    <t>Если позвонить на этот номер, то исполнится любое наше желание,но мы сразу же умрём?</t>
+  </si>
+  <si>
+    <t>999-9999</t>
+  </si>
+  <si>
+    <t>666-666</t>
+  </si>
+  <si>
+    <t>123-4567</t>
+  </si>
+  <si>
+    <t>800-6666</t>
+  </si>
+  <si>
+    <t>888-8888</t>
+  </si>
+  <si>
+    <t>900-000</t>
+  </si>
+  <si>
+    <t>Если позвонить этому номеру после полуночи, он сможет попросить всё, что пожелает, но ценой своей жизни. По этой легенде был снят фильм ужасов «999-9999».</t>
+  </si>
+  <si>
+    <t>помехи на видео</t>
+  </si>
+  <si>
+    <t>При его приближении радио, телевизоры и камеры начинают выдавать сильные помехи.</t>
+  </si>
+  <si>
+    <t>Как зовут призрак школьницы, упавшей под поезд и разрезанной напополам?</t>
+  </si>
+  <si>
+    <t>Теке-теке</t>
+  </si>
+  <si>
+    <t>Она является мстительным духом (онрё), который является по ночам в городах рядом с железнодорожными станциями</t>
+  </si>
+  <si>
+    <t>Существо-криптид, обладающее крыльями, высоким ростом и достаточно большой силой</t>
+  </si>
+  <si>
+    <t>Человек-мотылек</t>
+  </si>
+  <si>
+    <t>Как называется существо, которое видели перед обрушением Серебряного моста через реку Огайо 15-го декабря 1967 года?</t>
+  </si>
+  <si>
+    <t>В июле 1947 года близ этого города в штате Нью-Мексико потерпел крушение НЛО?</t>
+  </si>
+  <si>
+    <t>Розуэлл</t>
+  </si>
+  <si>
+    <t>В июле 1947 году, близ города Розуэлл в штате Нью-Мексико (США), потерпел крушение неопознанный летающий объект, предположительно инопланетного происхождения</t>
+  </si>
+  <si>
+    <t>яркий свет</t>
+  </si>
+  <si>
+    <t>гудок поезда</t>
+  </si>
+  <si>
+    <t>Как свидетельствует о  приближении Слендермена?</t>
+  </si>
+  <si>
+    <t>звонок телефона</t>
+  </si>
+  <si>
+    <t>мертвая тишина</t>
+  </si>
+  <si>
+    <t>шорох листьев</t>
+  </si>
+  <si>
+    <t>Турбо Бабка</t>
+  </si>
+  <si>
+    <t>Рюк</t>
+  </si>
+  <si>
+    <t>Человек-кролик</t>
+  </si>
+  <si>
+    <t>Чупакабра</t>
+  </si>
+  <si>
+    <t>Лас-Вегас</t>
+  </si>
+  <si>
+    <t>Альбукерке</t>
+  </si>
+  <si>
+    <t>Кексбург</t>
+  </si>
+  <si>
+    <t>Хупер</t>
+  </si>
+  <si>
+    <t>Боумен</t>
+  </si>
+  <si>
+    <t>Доверский демон</t>
+  </si>
+  <si>
+    <t>Серый человек</t>
+  </si>
+  <si>
+    <t>Человек-ящерица</t>
+  </si>
+  <si>
+    <t>болит голова</t>
+  </si>
+  <si>
+    <t>нет ног</t>
+  </si>
+  <si>
+    <t>украли одежду</t>
+  </si>
+  <si>
+    <t>вырос нос</t>
+  </si>
+  <si>
+    <t>Как называется правительственная организация в США, которая занимается прикрытием НЛО и пришельцев?</t>
+  </si>
+  <si>
+    <t>Люди в черном</t>
+  </si>
+  <si>
+    <t>Специалисты по внеземному разуму или правительственные агенты, которые посещают «очевидцев» НЛО и стирают им память</t>
+  </si>
+  <si>
+    <t>Черная Волга</t>
+  </si>
+  <si>
+    <t>Говорят, эту марку автомобиля с номером С.С.Д. видели во многих городах СССР, и появление этой машины связывали с пропажей детей</t>
+  </si>
+  <si>
+    <t>Родители при виде номеров "С.С.Д." начинали прятать своих детей, ведь аббревиатура означает "Смерть Советским Детям"</t>
+  </si>
+  <si>
+    <t>Что происходит в городских легендах после того, как водитель подбирает попутчика у кладбища?</t>
+  </si>
+  <si>
+    <t>Водитель приезжает в пункт назначения... но попутчик исчез. Позже водитель узнаёт, что попутчик был призраком</t>
+  </si>
+  <si>
+    <t>Черный Бумер</t>
+  </si>
+  <si>
+    <t>Черный Кадиллак</t>
+  </si>
+  <si>
+    <t>Chrysler 300 SRT8</t>
+  </si>
+  <si>
+    <t>Dodge Charger</t>
+  </si>
+  <si>
+    <t>Plymouth Fury</t>
+  </si>
+  <si>
+    <t>Иллюминаты</t>
+  </si>
+  <si>
+    <t>Белый лотос</t>
+  </si>
+  <si>
+    <t>Цикада 3301</t>
+  </si>
+  <si>
+    <t>Союз Семи</t>
+  </si>
+  <si>
+    <t>Трехсторонняя комиссия</t>
+  </si>
+  <si>
+    <t>ul_volga.webp</t>
+  </si>
+  <si>
+    <t>ul_bloodmary.webp</t>
+  </si>
+  <si>
+    <t>pic221</t>
+  </si>
+  <si>
+    <t>pic73</t>
+  </si>
+  <si>
+    <t>Как звали девушку, которая спроецировала свое проклятие на видеокассету?</t>
+  </si>
+  <si>
+    <t>pic183</t>
+  </si>
+  <si>
+    <t>ul_sadoko.webp</t>
+  </si>
+  <si>
+    <t>ul_videotape.webp</t>
+  </si>
+  <si>
+    <t>ul_cola.webp</t>
+  </si>
+  <si>
+    <t>ul_vanna.webp</t>
+  </si>
+  <si>
+    <t>ul_sakson.webp</t>
+  </si>
+  <si>
+    <t>ul_prizrak.webp</t>
+  </si>
+  <si>
+    <t>ul_gostdis.webp</t>
+  </si>
+  <si>
+    <t>ul_soldat.webp</t>
+  </si>
+  <si>
+    <t>pic220</t>
+  </si>
+  <si>
+    <t>pic173</t>
+  </si>
+  <si>
+    <t>Тайланд</t>
+  </si>
+  <si>
+    <t>ul_san.webp</t>
+  </si>
+  <si>
+    <t>ul_kruk.webp</t>
+  </si>
+  <si>
+    <t>ul_dog.webp</t>
+  </si>
+  <si>
+    <t>ul_allegator.webp</t>
+  </si>
+  <si>
+    <t>ul_999.webp</t>
+  </si>
+  <si>
+    <t>ul_slender.webp</t>
+  </si>
+  <si>
+    <t>pic228</t>
+  </si>
+  <si>
+    <t>pic252</t>
+  </si>
+  <si>
+    <t>ul_roswell.webp</t>
+  </si>
+  <si>
+    <t>ul_maninblack.webp</t>
   </si>
 </sst>
 </file>
@@ -739,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,7 +1003,7 @@
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,28 +1037,19 @@
       <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -824,469 +1061,705 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>75</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
         <v>76</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J13" t="s">
         <v>77</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>83</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>85</v>
       </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
         <v>103</v>
       </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>106</v>
-      </c>
       <c r="J15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>97</v>
-      </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" t="s">
-        <v>100</v>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
